--- a/Organization/Planning Phase 3.xlsx
+++ b/Organization/Planning Phase 3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aaronschapira/Documents/GitHub/Project_2-1_G5/Organization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A439A94B-51CC-DF44-BEE7-408BC97F3F39}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFE03138-B70F-D74F-A41A-07186340BB2B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14780" xr2:uid="{BA48486C-9AA5-C34C-A957-74AF5E1BC216}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="20360" xr2:uid="{BA48486C-9AA5-C34C-A957-74AF5E1BC216}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="40">
   <si>
     <t>MCTS</t>
   </si>
@@ -63,12 +63,6 @@
     <t>Look Into Other Approaches</t>
   </si>
   <si>
-    <t>ANN?</t>
-  </si>
-  <si>
-    <t>Reinforcement Learning?</t>
-  </si>
-  <si>
     <t>Game Tree</t>
   </si>
   <si>
@@ -115,6 +109,51 @@
   </si>
   <si>
     <t>Should be done</t>
+  </si>
+  <si>
+    <t>Who</t>
+  </si>
+  <si>
+    <t>Aaron</t>
+  </si>
+  <si>
+    <t>Mathias</t>
+  </si>
+  <si>
+    <t>Guillaume &amp; Adele</t>
+  </si>
+  <si>
+    <t>Ivan</t>
+  </si>
+  <si>
+    <t>Clement &amp; Aaron</t>
+  </si>
+  <si>
+    <t>Mathias &amp; Loris</t>
+  </si>
+  <si>
+    <t>Clement &amp; Whoever free</t>
+  </si>
+  <si>
+    <t>Everyone</t>
+  </si>
+  <si>
+    <t>Research new Bot to implement</t>
+  </si>
+  <si>
+    <t>Improvements</t>
+  </si>
+  <si>
+    <t>Further Improvement of the strategies (developp the ones we have)</t>
+  </si>
+  <si>
+    <t>Based on the research</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clement &amp; Ivan </t>
+  </si>
+  <si>
+    <t>Adele &amp; Mathias</t>
   </si>
 </sst>
 </file>
@@ -164,11 +203,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -483,18 +526,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E37AB65C-CA63-3A40-B8E7-1384CD12F43A}">
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="57" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B1" s="1">
         <v>37987</v>
       </c>
@@ -516,34 +560,43 @@
       <c r="H1" s="1">
         <v>44197</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I1" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -551,13 +604,16 @@
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -565,8 +621,11 @@
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -574,142 +633,203 @@
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="I21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="I22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="I25" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="I26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>14</v>
+      </c>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="I32" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>15</v>
+      </c>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="I33" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>17</v>
+      </c>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>18</v>
+      </c>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>19</v>
+      </c>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H41" s="3"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>14</v>
-      </c>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>16</v>
-      </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>17</v>
-      </c>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>19</v>
-      </c>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>20</v>
-      </c>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>21</v>
-      </c>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A37" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="H38" s="3"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A40" s="3" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
